--- a/excel/유의어db_작성중_구분문자변경.xlsx
+++ b/excel/유의어db_작성중_구분문자변경.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\tistory-convert-new\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF93D03-D2E5-4C96-974D-30D17C8C0BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76050386-11FF-44A3-AE45-15C95D2B4B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양방향" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="295">
   <si>
     <t>였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,437 +562,434 @@
     <t>릅니다.=라요.</t>
   </si>
   <si>
+    <t>있습니다.=있어요.=있답니다.</t>
+  </si>
+  <si>
+    <t>있나요=있으신가요=있으세요</t>
+  </si>
+  <si>
+    <t>었습니다.=었어요.</t>
+  </si>
+  <si>
+    <t>계셨나요=계신가요=있으셨나요=있었나요</t>
+  </si>
+  <si>
+    <t>없습니다.=없어요.=없답니다.</t>
+  </si>
+  <si>
+    <t>합니다.=해요.=합니다.=하죠.</t>
+  </si>
+  <si>
+    <t>하겠습니다.=해 보겠습니다.=해 볼게요.=해볼게요.</t>
+  </si>
+  <si>
+    <t>하는데요.=해요.</t>
+  </si>
+  <si>
+    <t>했어요.=했습니다.</t>
+  </si>
+  <si>
+    <t>했답니다.=했어요.=했지요.</t>
+  </si>
+  <si>
+    <t>하네요.=해요.</t>
+  </si>
+  <si>
+    <t>났습니다.=났어요.</t>
+  </si>
+  <si>
+    <t>났었습니다.=났어요.</t>
+  </si>
+  <si>
+    <t>됩니다.=돼요.=되어요.</t>
+  </si>
+  <si>
+    <t>되었습니다.=되었어요.=됐어요.</t>
+  </si>
+  <si>
+    <t>듭니다.=들어요.=들게 됩니다.</t>
+  </si>
+  <si>
+    <t>드리겠습니다.=드릴게요.=드리도록 할게요.</t>
+  </si>
+  <si>
+    <t>많습니다.=많아요.=많다고 해요.</t>
+  </si>
+  <si>
+    <t>높습니다.=높아요.=높다고 합니다.</t>
+  </si>
+  <si>
+    <t>바랍니다.=바래요.=바랄게요.</t>
+  </si>
+  <si>
+    <t>같습니다.=같아요.=같지요.</t>
+  </si>
+  <si>
+    <t>좋습니다.=좋아요.=좋답니다.</t>
+  </si>
+  <si>
+    <t>좋겠네요.=좋겠습니다.=좋아요.</t>
+  </si>
+  <si>
+    <t>았습니다.=았어요.</t>
+  </si>
+  <si>
+    <t>있는데요.=있어요.</t>
+  </si>
+  <si>
+    <t>되겠네요.=되겠죠.=되겠습니다.</t>
+  </si>
+  <si>
+    <t>되는데요.=됩니다.</t>
+  </si>
+  <si>
+    <t>킵니다.=켜요.</t>
+  </si>
+  <si>
+    <t>불립니다.=불려요.</t>
+  </si>
+  <si>
+    <t>부릅니다.=불러요.=불리워요.</t>
+  </si>
+  <si>
+    <t>룹니다.=뤄요.</t>
+  </si>
+  <si>
+    <t>줍니다.=주어요.=줘요.</t>
+  </si>
+  <si>
+    <t>드렸습니다.=드렸어요.</t>
+  </si>
+  <si>
+    <t>집니다.=져요.</t>
+  </si>
+  <si>
+    <t>칩니다.=쳐요.</t>
+  </si>
+  <si>
+    <t>보겠습니다.=볼게요.=보도록 할게요.</t>
+  </si>
+  <si>
+    <t>봅시다.=볼게요.=보도록 합시다.</t>
+  </si>
+  <si>
+    <t>보자.=보세요.=보시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>봅니다.=봐요.=봅시다.</t>
+  </si>
+  <si>
+    <t>왔습니다.=왔어요.</t>
+  </si>
+  <si>
+    <t>졌습니다.=졌어요.</t>
+  </si>
+  <si>
+    <t>겁니다.=거예요.=것 입니다.</t>
+  </si>
+  <si>
+    <t>것이 좋아요.=편이 좋아요.=게 좋아요.</t>
+  </si>
+  <si>
+    <t>돕습니다.=도와요.=도와줍니다.</t>
+  </si>
+  <si>
+    <t>드립니다.=드려요.=드리겠습니다.=드리도록 하겠습니다.</t>
+  </si>
+  <si>
+    <t>얻습니다.=얻어요.=얻게 돼요.=얻게 됩니다.</t>
+  </si>
+  <si>
+    <t>하였습니다.=하였어요.=했습니다.=했어요.</t>
+  </si>
+  <si>
+    <t>마치겠습니다.=마칠게요.=마치도록 하겠습니다.=마칩니다.</t>
+  </si>
+  <si>
+    <t>아닙니다.=아니예요.</t>
+  </si>
+  <si>
+    <t>입니다.=이죠.=이지요.</t>
+  </si>
+  <si>
+    <t>않습니다.=않아요.</t>
+  </si>
+  <si>
+    <t>잃습니다.=잃어요.=잃게 돼요.=잃게 되어요.</t>
+  </si>
+  <si>
+    <t>였습니다.=였어요.=였답니다.</t>
+  </si>
+  <si>
+    <t>갔습니다.=갔어요.</t>
+  </si>
+  <si>
+    <t>납니다.=났어요.</t>
+  </si>
+  <si>
+    <t>인데요.=입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하여 =해서 </t>
+  </si>
+  <si>
+    <t>도움이 되는=도움을 주는=도움되는</t>
+  </si>
+  <si>
+    <t>도움이 되기=도움을 주기=도움 되기</t>
+  </si>
+  <si>
+    <t>강력한=강한=엄청난</t>
+  </si>
+  <si>
+    <t>강하게 만들고=강하게 하고=강하게 만들며</t>
+  </si>
+  <si>
+    <t>하게 하고=하게 해주고=하게 하며</t>
+  </si>
+  <si>
+    <t>알아보겠습니다.=알아보시죠.=알아보도록 하겠습니다.=알아볼게요.</t>
+  </si>
+  <si>
+    <t>참고하세요.=참고하시기 바래요.=참고하시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>효과를 보인다는=효과가 좋다는=효과가 나타난다는</t>
+  </si>
+  <si>
+    <t>확인됐습니다.=확인할 수 있습니다.=확인되고 있습니다.</t>
+  </si>
+  <si>
+    <t>밥을 먹거나=식사를 하거나=식사하거나=밥을 드시거나</t>
+  </si>
+  <si>
+    <t>늘어나고 있습니다.=증가하는 추세입니다.=늘어나고 있는 모습입니다.</t>
+  </si>
+  <si>
+    <t>급증하고 있습니다=많이 늘고 있습니다.=급격히 늘어나고 있습니다.=늘어나고 있습니다.</t>
+  </si>
+  <si>
+    <t>판매하고 있습니다.=판매하고 있다고 합니다.=판매중에 있습니다.</t>
+  </si>
+  <si>
+    <t>좋을것 같습니다.=괜찮을 것 같습니다.= 괜찮을 듯 합니다.=좋을 듯 합니다.</t>
+  </si>
+  <si>
+    <t>좋을 것 같습니다.=괜찮을것 같습니다.= 괜찮을 듯 합니다.=좋을듯 합니다.</t>
+  </si>
+  <si>
+    <t>조심해야 합니다.=조심하는 것이 좋습니다.=주의해야 합니다.=주의하셔야 합니다.</t>
+  </si>
+  <si>
+    <t>해볼 수 있는=할 수 있는=해볼만한</t>
+  </si>
+  <si>
+    <t>대해서는=대해선=대해서</t>
+  </si>
+  <si>
+    <t>대해서=대하여=연관하여=관련하여</t>
+  </si>
+  <si>
+    <t>합성한=합친=합해진</t>
+  </si>
+  <si>
+    <t>많이 계신 것 같은데=많으신데=많으실텐데</t>
+  </si>
+  <si>
+    <t>알려드리겠습니다.=알려드리도록 하겠습니다.=알려드릴게요.</t>
+  </si>
+  <si>
+    <t>낮추어=낮춰=감소시켜</t>
+  </si>
+  <si>
+    <t>낮춰주고=감소시키고=저하시키고</t>
+  </si>
+  <si>
+    <t>증가시키=늘려주</t>
+  </si>
+  <si>
+    <t>맑게하=맑게해주=맑게만드</t>
+  </si>
+  <si>
+    <t>감소하=떨어지=떨어트리</t>
+  </si>
+  <si>
+    <t>감소시켜=낮춰=낮추어=감소하게 만들어</t>
+  </si>
+  <si>
+    <t>효과적이어서=효과가 좋아서=효과가 상당해서=효과가 높아서</t>
+  </si>
+  <si>
+    <t>풀어주=해소해주=해소해 주=</t>
+  </si>
+  <si>
+    <t>함유되=포함되</t>
+  </si>
+  <si>
+    <t>함유돼=포함돼</t>
+  </si>
+  <si>
+    <t>억제시켜=억제해</t>
+  </si>
+  <si>
+    <t>들어 있는=포함되어 있는=들어가 있는</t>
+  </si>
+  <si>
+    <t>유발하=일으키</t>
+  </si>
+  <si>
+    <t>이라는=이라고 하는=이라 하는</t>
+  </si>
+  <si>
+    <t>배출시켜=배출해</t>
+  </si>
+  <si>
+    <t>배출하고=내보내고=배출시키고</t>
+  </si>
+  <si>
+    <t>생기게=발생하게</t>
+  </si>
+  <si>
+    <t>쌓인=축적된=쌓이게 된</t>
+  </si>
+  <si>
+    <t>탁해지거나=걸쭉해지거나</t>
+  </si>
+  <si>
+    <t>원인이 되는=원인인=원인의</t>
+  </si>
+  <si>
+    <t>주며=주고=주어</t>
+  </si>
+  <si>
+    <t>생성해 주는=만들어 주는</t>
+  </si>
+  <si>
+    <t>유지해=지속시켜</t>
+  </si>
+  <si>
+    <t>돕고=도와주고=도와주며</t>
+  </si>
+  <si>
+    <t>과다 섭취=과하게 섭취=많이 섭취</t>
+  </si>
+  <si>
+    <t>찬 성질=차가운 성질=냉한 성질</t>
+  </si>
+  <si>
+    <t>뿐만 아니라=더불어</t>
+  </si>
+  <si>
+    <t>생길 수=일어날 수=생기게 될 수</t>
+  </si>
+  <si>
+    <t>있기 때문에=있으므로</t>
+  </si>
+  <si>
+    <t>을 정도로=을 만큼</t>
+  </si>
+  <si>
+    <t>막아주고=방지하고</t>
+  </si>
+  <si>
+    <t>효과적이며=효과가 뛰어나며=효과가 대단하며</t>
+  </si>
+  <si>
+    <t>효과적이고=효과가 뛰어나고=효과가 대단하고</t>
+  </si>
+  <si>
+    <t>준다고 알려져=주는 것으로 알려져=준다는 것으로 알려져</t>
+  </si>
+  <si>
+    <t>줄이고=줄여주고=줄이게 되고</t>
+  </si>
+  <si>
+    <t>일종인=한 종류인=하나인=한 가지인</t>
+  </si>
+  <si>
+    <t>평소=평상시=평상시에</t>
+  </si>
+  <si>
+    <t>조만간=곧=지금부터=지금 바로</t>
+  </si>
+  <si>
+    <t>나만의=나 자신만의</t>
+  </si>
+  <si>
+    <t>일상을=일상적인 것을</t>
+  </si>
+  <si>
+    <t>등의=등등</t>
+  </si>
+  <si>
+    <t>현재는=지금은=요즘은</t>
+  </si>
+  <si>
+    <t>요즈음=요즘 들어=요즘들어서</t>
+  </si>
+  <si>
+    <t>유튜브=youtube</t>
+  </si>
+  <si>
+    <t>영상콘텐츠=동영상 콘텐츠</t>
+  </si>
+  <si>
+    <t>인스타=인스타그램=instagram=인별그램</t>
+  </si>
+  <si>
+    <t>SNS=소셜미디어</t>
+  </si>
+  <si>
+    <t>유서=유언장</t>
+  </si>
+  <si>
+    <t>예로부터=옛날부터=예전부터=오래전부터</t>
+  </si>
+  <si>
+    <t>다양한=여러가지</t>
+  </si>
+  <si>
+    <t>각종=가지가지=갖가지</t>
+  </si>
+  <si>
+    <t>많은 도움=큰 도움</t>
+  </si>
+  <si>
+    <t>더욱더=더더욱=더욱</t>
+  </si>
+  <si>
+    <t>인해서=인하여=인해</t>
+  </si>
+  <si>
+    <t>위해서=위하여=위해</t>
+  </si>
+  <si>
+    <t>꼭=반드시=필수로</t>
+  </si>
+  <si>
+    <t>관련=연관</t>
+  </si>
+  <si>
+    <t>강하지=쎄지</t>
+  </si>
+  <si>
+    <t>내외로=안팎으로=안과 밖으로</t>
+  </si>
+  <si>
+    <t>이제부터=지금부터=바로 지금부터=현 시점부터</t>
+  </si>
+  <si>
+    <t>으뜸인=최고인=제일인</t>
+  </si>
+  <si>
+    <t>화려하게=수려하게=유려하게=아름답게</t>
+  </si>
+  <si>
+    <t>하며=하고=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>있다고 하며=있으며=있고</t>
-  </si>
-  <si>
-    <t>있습니다.=있어요.=있답니다.</t>
-  </si>
-  <si>
-    <t>있나요=있으신가요=있으세요</t>
-  </si>
-  <si>
-    <t>었습니다.=었어요.</t>
-  </si>
-  <si>
-    <t>계셨나요=계신가요=있으셨나요=있었나요</t>
-  </si>
-  <si>
-    <t>없습니다.=없어요.=없답니다.</t>
-  </si>
-  <si>
-    <t>합니다.=해요.=합니다.=하죠.</t>
-  </si>
-  <si>
-    <t>하겠습니다.=해 보겠습니다.=해 볼게요.=해볼게요.</t>
-  </si>
-  <si>
-    <t>하는데요.=해요.</t>
-  </si>
-  <si>
-    <t>했어요.=했습니다.</t>
-  </si>
-  <si>
-    <t>했답니다.=했어요.=했지요.</t>
-  </si>
-  <si>
-    <t>하네요.=해요.</t>
-  </si>
-  <si>
-    <t>났습니다.=났어요.</t>
-  </si>
-  <si>
-    <t>났었습니다.=났어요.</t>
-  </si>
-  <si>
-    <t>됩니다.=돼요.=되어요.</t>
-  </si>
-  <si>
-    <t>되었습니다.=되었어요.=됐어요.</t>
-  </si>
-  <si>
-    <t>듭니다.=들어요.=들게 됩니다.</t>
-  </si>
-  <si>
-    <t>드리겠습니다.=드릴게요.=드리도록 할게요.</t>
-  </si>
-  <si>
-    <t>많습니다.=많아요.=많다고 해요.</t>
-  </si>
-  <si>
-    <t>높습니다.=높아요.=높다고 합니다.</t>
-  </si>
-  <si>
-    <t>바랍니다.=바래요.=바랄게요.</t>
-  </si>
-  <si>
-    <t>같습니다.=같아요.=같지요.</t>
-  </si>
-  <si>
-    <t>좋습니다.=좋아요.=좋답니다.</t>
-  </si>
-  <si>
-    <t>좋겠네요.=좋겠습니다.=좋아요.</t>
-  </si>
-  <si>
-    <t>았습니다.=았어요.</t>
-  </si>
-  <si>
-    <t>있는데요.=있어요.</t>
-  </si>
-  <si>
-    <t>되겠네요.=되겠죠.=되겠습니다.</t>
-  </si>
-  <si>
-    <t>되는데요.=됩니다.</t>
-  </si>
-  <si>
-    <t>킵니다.=켜요.</t>
-  </si>
-  <si>
-    <t>불립니다.=불려요.</t>
-  </si>
-  <si>
-    <t>부릅니다.=불러요.=불리워요.</t>
-  </si>
-  <si>
-    <t>룹니다.=뤄요.</t>
-  </si>
-  <si>
-    <t>줍니다.=주어요.=줘요.</t>
-  </si>
-  <si>
-    <t>드렸습니다.=드렸어요.</t>
-  </si>
-  <si>
-    <t>집니다.=져요.</t>
-  </si>
-  <si>
-    <t>칩니다.=쳐요.</t>
-  </si>
-  <si>
-    <t>보겠습니다.=볼게요.=보도록 할게요.</t>
-  </si>
-  <si>
-    <t>봅시다.=볼게요.=보도록 합시다.</t>
-  </si>
-  <si>
-    <t>보자.=보세요.=보시기 바랍니다.</t>
-  </si>
-  <si>
-    <t>봅니다.=봐요.=봅시다.</t>
-  </si>
-  <si>
-    <t>왔습니다.=왔어요.</t>
-  </si>
-  <si>
-    <t>졌습니다.=졌어요.</t>
-  </si>
-  <si>
-    <t>겁니다.=거예요.=것 입니다.</t>
-  </si>
-  <si>
-    <t>것이 좋아요.=편이 좋아요.=게 좋아요.</t>
-  </si>
-  <si>
-    <t>돕습니다.=도와요.=도와줍니다.</t>
-  </si>
-  <si>
-    <t>드립니다.=드려요.=드리겠습니다.=드리도록 하겠습니다.</t>
-  </si>
-  <si>
-    <t>얻습니다.=얻어요.=얻게 돼요.=얻게 됩니다.</t>
-  </si>
-  <si>
-    <t>하였습니다.=하였어요.=했습니다.=했어요.</t>
-  </si>
-  <si>
-    <t>마치겠습니다.=마칠게요.=마치도록 하겠습니다.=마칩니다.</t>
-  </si>
-  <si>
-    <t>아닙니다.=아니예요.</t>
-  </si>
-  <si>
-    <t>입니다.=이죠.=이지요.</t>
-  </si>
-  <si>
-    <t>않습니다.=않아요.</t>
-  </si>
-  <si>
-    <t>잃습니다.=잃어요.=잃게 돼요.=잃게 되어요.</t>
-  </si>
-  <si>
-    <t>였습니다.=였어요.=였답니다.</t>
-  </si>
-  <si>
-    <t>갔습니다.=갔어요.</t>
-  </si>
-  <si>
-    <t>납니다.=났어요.</t>
-  </si>
-  <si>
-    <t>인데요.=입니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하여 =해서 </t>
-  </si>
-  <si>
-    <t>도움이 되는=도움을 주는=도움되는</t>
-  </si>
-  <si>
-    <t>도움이 되기=도움을 주기=도움 되기</t>
-  </si>
-  <si>
-    <t>강력한=강한=엄청난</t>
-  </si>
-  <si>
-    <t>강하게 만들고=강하게 하고=강하게 만들며</t>
-  </si>
-  <si>
-    <t>하게 하고=하게 해주고=하게 하며</t>
-  </si>
-  <si>
-    <t>알아보겠습니다.=알아보시죠.=알아보도록 하겠습니다.=알아볼게요.</t>
-  </si>
-  <si>
-    <t>참고하세요.=참고하시기 바래요.=참고하시기 바랍니다.</t>
-  </si>
-  <si>
-    <t>효과를 보인다는=효과가 좋다는=효과가 나타난다는</t>
-  </si>
-  <si>
-    <t>확인됐습니다.=확인할 수 있습니다.=확인되고 있습니다.</t>
-  </si>
-  <si>
-    <t>밥을 먹거나=식사를 하거나=식사하거나=밥을 드시거나</t>
-  </si>
-  <si>
-    <t>늘어나고 있습니다.=증가하는 추세입니다.=늘어나고 있는 모습입니다.</t>
-  </si>
-  <si>
-    <t>급증하고 있습니다=많이 늘고 있습니다.=급격히 늘어나고 있습니다.=늘어나고 있습니다.</t>
-  </si>
-  <si>
-    <t>판매하고 있습니다.=판매하고 있다고 합니다.=판매중에 있습니다.</t>
-  </si>
-  <si>
-    <t>좋을것 같습니다.=괜찮을 것 같습니다.= 괜찮을 듯 합니다.=좋을 듯 합니다.</t>
-  </si>
-  <si>
-    <t>좋을 것 같습니다.=괜찮을것 같습니다.= 괜찮을 듯 합니다.=좋을듯 합니다.</t>
-  </si>
-  <si>
-    <t>조심해야 합니다.=조심하는 것이 좋습니다.=주의해야 합니다.=주의하셔야 합니다.</t>
-  </si>
-  <si>
-    <t>해볼 수 있는=할 수 있는=해볼만한</t>
-  </si>
-  <si>
-    <t>대해서는=대해선=대해서</t>
-  </si>
-  <si>
-    <t>대해서=대하여=연관하여=관련하여</t>
-  </si>
-  <si>
-    <t>합성한=합친=합해진</t>
-  </si>
-  <si>
-    <t>많이 계신 것 같은데=많으신데=많으실텐데</t>
-  </si>
-  <si>
-    <t>알려드리겠습니다.=알려드리도록 하겠습니다.=알려드릴게요.</t>
-  </si>
-  <si>
-    <t>낮추어=낮춰=감소시켜</t>
-  </si>
-  <si>
-    <t>낮춰주고=감소시키고=저하시키고</t>
-  </si>
-  <si>
-    <t>증가시키=늘려주</t>
-  </si>
-  <si>
-    <t>맑게하=맑게해주=맑게만드</t>
-  </si>
-  <si>
-    <t>감소하=떨어지=떨어트리</t>
-  </si>
-  <si>
-    <t>감소시켜=낮춰=낮추어=감소하게 만들어</t>
-  </si>
-  <si>
-    <t>효과적이어서=효과가 좋아서=효과가 상당해서=효과가 높아서</t>
-  </si>
-  <si>
-    <t>풀어주=해소해주=해소해 주=</t>
-  </si>
-  <si>
-    <t>함유되=포함되</t>
-  </si>
-  <si>
-    <t>함유돼=포함돼</t>
-  </si>
-  <si>
-    <t>억제시켜=억제해</t>
-  </si>
-  <si>
-    <t>들어 있는=포함되어 있는=들어가 있는</t>
-  </si>
-  <si>
-    <t>유발하=일으키</t>
-  </si>
-  <si>
-    <t>이라는=이라고 하는=이라 하는</t>
-  </si>
-  <si>
-    <t>배출시켜=배출해</t>
-  </si>
-  <si>
-    <t>배출하고=내보내고=배출시키고</t>
-  </si>
-  <si>
-    <t>생기게=발생하게</t>
-  </si>
-  <si>
-    <t>쌓인=축적된=쌓이게 된</t>
-  </si>
-  <si>
-    <t>탁해지거나=걸쭉해지거나</t>
-  </si>
-  <si>
-    <t>원인이 되는=원인인=원인의</t>
-  </si>
-  <si>
-    <t>주며=주고=주어</t>
-  </si>
-  <si>
-    <t>생성해 주는=만들어 주는</t>
-  </si>
-  <si>
-    <t>유지해=지속시켜</t>
-  </si>
-  <si>
-    <t>돕고=도와주고=도와주며</t>
-  </si>
-  <si>
-    <t>과다 섭취=과하게 섭취=많이 섭취</t>
-  </si>
-  <si>
-    <t>찬 성질=차가운 성질=냉한 성질</t>
-  </si>
-  <si>
-    <t>뿐만 아니라=더불어</t>
-  </si>
-  <si>
-    <t>생길 수=일어날 수=생기게 될 수</t>
-  </si>
-  <si>
-    <t>있기 때문에=있으므로</t>
-  </si>
-  <si>
-    <t>을 정도로=을 만큼</t>
-  </si>
-  <si>
-    <t>막아주고=방지하고</t>
-  </si>
-  <si>
-    <t>효과적이며=효과가 뛰어나며=효과가 대단하며</t>
-  </si>
-  <si>
-    <t>효과적이고=효과가 뛰어나고=효과가 대단하고</t>
-  </si>
-  <si>
-    <t>준다고 알려져=주는 것으로 알려져=준다는 것으로 알려져</t>
-  </si>
-  <si>
-    <t>줄이고=줄여주고=줄이게 되고</t>
-  </si>
-  <si>
-    <t>일종인=한 종류인=하나인=한 가지인</t>
-  </si>
-  <si>
-    <t>평소=평상시=평상시에</t>
-  </si>
-  <si>
-    <t>조만간=곧=지금부터=지금 바로</t>
-  </si>
-  <si>
-    <t>나만의=나 자신만의</t>
-  </si>
-  <si>
-    <t>일상을=일상적인 것을</t>
-  </si>
-  <si>
-    <t>등의=등등</t>
-  </si>
-  <si>
-    <t>현재는=지금은=요즘은</t>
-  </si>
-  <si>
-    <t>요즈음=요즘 들어=요즘들어서</t>
-  </si>
-  <si>
-    <t>유튜브=youtube</t>
-  </si>
-  <si>
-    <t>영상콘텐츠=동영상 콘텐츠</t>
-  </si>
-  <si>
-    <t>인스타=인스타그램=instagram=인별그램</t>
-  </si>
-  <si>
-    <t>SNS=소셜미디어</t>
-  </si>
-  <si>
-    <t>유서=유언장</t>
-  </si>
-  <si>
-    <t>예로부터=옛날부터=예전부터=오래전부터</t>
-  </si>
-  <si>
-    <t>다양한=여러가지</t>
-  </si>
-  <si>
-    <t>각종=가지가지=갖가지</t>
-  </si>
-  <si>
-    <t>많은 도움=큰 도움</t>
-  </si>
-  <si>
-    <t>더욱더=더더욱=더욱</t>
-  </si>
-  <si>
-    <t>인해서=인하여=인해</t>
-  </si>
-  <si>
-    <t>위해서=위하여=위해</t>
-  </si>
-  <si>
-    <t>꼭=반드시=필수로</t>
-  </si>
-  <si>
-    <t>관련=연관</t>
-  </si>
-  <si>
-    <t>강하지=쎄지</t>
-  </si>
-  <si>
-    <t>내외로=안팎으로=안과 밖으로</t>
-  </si>
-  <si>
-    <t>이제부터=지금부터=바로 지금부터=현 시점부터</t>
-  </si>
-  <si>
-    <t>으뜸인=최고인=제일인</t>
-  </si>
-  <si>
-    <t>화려하게=수려하게=유려하게=아름답게</t>
-  </si>
-  <si>
-    <t>하며=하고=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">폐어망= </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A145"/>
+  <dimension ref="A1:A144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1353,632 +1350,632 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
@@ -2063,12 +2060,7 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/excel/유의어db_작성중_구분문자변경.xlsx
+++ b/excel/유의어db_작성중_구분문자변경.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\tistory-convert-new\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76050386-11FF-44A3-AE45-15C95D2B4B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C66E33-FC12-4F27-80CC-1B0548258B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양방향" sheetId="1" r:id="rId1"/>
@@ -985,11 +985,11 @@
     <t>화려하게=수려하게=유려하게=아름답게</t>
   </si>
   <si>
-    <t>하며=하고=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>있다고 하며=있으며=있고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하며=하고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1334,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
@@ -2060,7 +2060,7 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/excel/유의어db_작성중_구분문자변경.xlsx
+++ b/excel/유의어db_작성중_구분문자변경.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\tistory-convert-new\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C66E33-FC12-4F27-80CC-1B0548258B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E918990B-E8F2-4D56-BE7D-B37D0F2B0AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양방향" sheetId="1" r:id="rId1"/>
@@ -1334,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
